--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK2/1.FILES/vragen_questions_HI_taak2_story2.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK2/1.FILES/vragen_questions_HI_taak2_story2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/martina_vandebroek_kuleuven_be/Documents/Desktop/TAKEN 2022-2023/Vragen/HI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leonard_maaya_kuleuven_be1/Documents/ATSTAT-TASKS/TASK2/1.FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5283FA8C-15B0-4B79-AD22-B1C1191CA608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC78122C-EB95-4387-AB5F-3DB2443D7799}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,19 +565,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="5"/>
-    <col min="3" max="3" width="68.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="5" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="5"/>
+    <col min="3" max="3" width="68.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="76.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75">
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75">
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75">
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75">
+    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="60">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="75">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -740,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="45">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -757,7 +757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="45">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -774,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="45">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -791,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -808,7 +808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
